--- a/TestRunner.xlsx
+++ b/TestRunner.xlsx
@@ -3,19 +3,18 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JafraAutomation_Testing\JafraAutomationRepo\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="72" windowWidth="20112" windowHeight="7992"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11910" windowHeight="4965"/>
   </bookViews>
   <sheets>
     <sheet name="MasterExecutor" sheetId="1" r:id="rId1"/>
     <sheet name="MiscellaneousParam" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <definedNames>
+    <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
+  </definedNames>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
   <customWorkbookViews>
     <customWorkbookView name="De, Rohitaswa (Cognizant) - Personal View" guid="{9010DD8F-D36F-4879-9B75-D890A531662F}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="543" activeSheetId="1"/>
   </customWorkbookViews>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="83">
   <si>
     <t>Scenario</t>
   </si>
@@ -269,6 +268,9 @@
   </si>
   <si>
     <t xml:space="preserve">B2C Normal flow order </t>
+  </si>
+  <si>
+    <t>Firefox</t>
   </si>
 </sst>
 </file>
@@ -1041,8 +1043,36 @@
     <cellStyle name="Total 2" xfId="47"/>
     <cellStyle name="Warning Text 2" xfId="48"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFD7D7D7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+      <tableStyleElement type="wholeTable" dxfId="1"/>
+      <tableStyleElement type="headerRow" dxfId="0"/>
+    </tableStyle>
+  </tableStyles>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1343,23 +1373,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="83.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="83.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.6640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1385,7 +1415,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1402,13 +1432,13 @@
         <v>9</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="H2" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>13</v>
       </c>
@@ -1431,7 +1461,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>13</v>
       </c>
@@ -1454,7 +1484,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1477,7 +1507,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>13</v>
       </c>
@@ -1500,7 +1530,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>13</v>
       </c>
@@ -1523,7 +1553,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>13</v>
       </c>
@@ -1546,7 +1576,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
@@ -1569,7 +1599,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>13</v>
       </c>
@@ -1592,7 +1622,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>13</v>
       </c>
@@ -1615,7 +1645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>13</v>
       </c>
@@ -1638,7 +1668,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
@@ -1662,7 +1692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>13</v>
       </c>
@@ -1685,7 +1715,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1708,7 +1738,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>13</v>
       </c>
@@ -1731,7 +1761,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="5" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" s="5" customFormat="1" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>13</v>
       </c>
@@ -1754,7 +1784,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>13</v>
       </c>
@@ -1778,7 +1808,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>13</v>
       </c>
@@ -1801,7 +1831,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
@@ -1824,7 +1854,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
@@ -1848,7 +1878,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>14</v>
       </c>
@@ -1872,7 +1902,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>14</v>
       </c>
@@ -1896,7 +1926,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>14</v>
       </c>
@@ -1920,7 +1950,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>14</v>
       </c>
@@ -1943,7 +1973,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>14</v>
       </c>
@@ -1966,7 +1996,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>14</v>
       </c>
@@ -1989,7 +2019,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>14</v>
       </c>
@@ -2012,7 +2042,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>14</v>
       </c>
@@ -2035,7 +2065,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>14</v>
       </c>
@@ -2059,7 +2089,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>14</v>
       </c>
@@ -2083,7 +2113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>14</v>
       </c>
@@ -2107,7 +2137,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>14</v>
       </c>
@@ -2130,7 +2160,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>14</v>
       </c>
@@ -2153,7 +2183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>14</v>
       </c>
@@ -2170,22 +2200,22 @@
         <v>9</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>10</v>
+        <v>82</v>
       </c>
       <c r="G36" s="5"/>
       <c r="H36" s="10" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="38" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="40" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="44" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>15</v>
       </c>
@@ -2209,7 +2239,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>15</v>
       </c>
@@ -2233,7 +2263,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>15</v>
       </c>
@@ -2257,7 +2287,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>15</v>
       </c>
@@ -2281,7 +2311,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>15</v>
       </c>
@@ -2305,7 +2335,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>15</v>
       </c>
@@ -2329,7 +2359,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>15</v>
       </c>
@@ -2353,7 +2383,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>15</v>
       </c>
@@ -2377,7 +2407,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>15</v>
       </c>
@@ -2401,7 +2431,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>15</v>
       </c>
@@ -2425,7 +2455,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>15</v>
       </c>
@@ -2449,7 +2479,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>15</v>
       </c>
@@ -2473,7 +2503,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>15</v>
       </c>
@@ -2497,7 +2527,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>15</v>
       </c>
@@ -2520,9 +2550,9 @@
         <v>55</v>
       </c>
     </row>
-    <row r="60" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>16</v>
       </c>
@@ -2545,7 +2575,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>16</v>
       </c>
@@ -2568,7 +2598,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>16</v>
       </c>
@@ -2591,7 +2621,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="65" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>16</v>
       </c>
@@ -2614,7 +2644,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="66" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>16</v>
       </c>
@@ -2637,7 +2667,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>16</v>
       </c>
@@ -2660,7 +2690,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>16</v>
       </c>
@@ -2683,7 +2713,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>16</v>
       </c>
@@ -2706,7 +2736,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>16</v>
       </c>
@@ -2729,7 +2759,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>16</v>
       </c>
@@ -2752,7 +2782,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>16</v>
       </c>
@@ -2775,7 +2805,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="73" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>16</v>
       </c>
@@ -2798,8 +2828,8 @@
         <v>55</v>
       </c>
     </row>
-    <row r="74" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A75" s="3"/>
       <c r="C75" s="7"/>
       <c r="F75" s="3"/>
@@ -2807,7 +2837,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A76" s="3"/>
       <c r="C76" s="7"/>
       <c r="F76" s="3"/>
@@ -2815,7 +2845,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A77" s="3"/>
       <c r="C77" s="7"/>
       <c r="F77" s="3"/>
@@ -2823,7 +2853,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="C78" s="7"/>
       <c r="F78" s="3"/>
@@ -2831,7 +2861,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>67</v>
       </c>
@@ -2854,7 +2884,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>67</v>
       </c>
@@ -2877,7 +2907,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>67</v>
       </c>
@@ -2900,7 +2930,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>67</v>
       </c>
@@ -2923,7 +2953,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="83" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>67</v>
       </c>
@@ -2946,7 +2976,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>67</v>
       </c>
@@ -2969,7 +2999,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="85" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>67</v>
       </c>
@@ -2992,7 +3022,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>67</v>
       </c>
@@ -3015,7 +3045,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="87" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" s="5" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>67</v>
       </c>
@@ -3038,7 +3068,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>67</v>
       </c>
@@ -3062,7 +3092,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>67</v>
       </c>
@@ -3086,7 +3116,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>67</v>
       </c>
@@ -3110,7 +3140,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>67</v>
       </c>
@@ -3134,7 +3164,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>67</v>
       </c>
@@ -3158,7 +3188,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>67</v>
       </c>
@@ -3182,7 +3212,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>68</v>
       </c>
@@ -3206,7 +3236,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>68</v>
       </c>
@@ -3230,7 +3260,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>68</v>
       </c>
@@ -3254,7 +3284,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>68</v>
       </c>
@@ -3278,7 +3308,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>68</v>
       </c>
@@ -3302,7 +3332,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>68</v>
       </c>
@@ -3326,7 +3356,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>68</v>
       </c>
@@ -3350,7 +3380,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>68</v>
       </c>
@@ -3374,7 +3404,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>68</v>
       </c>
@@ -3398,7 +3428,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>68</v>
       </c>
@@ -3422,7 +3452,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>68</v>
       </c>
@@ -3446,7 +3476,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>68</v>
       </c>
@@ -3470,7 +3500,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>68</v>
       </c>
@@ -3527,13 +3557,13 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" customWidth="1"/>
+    <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>5</v>
       </c>
@@ -3541,7 +3571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
